--- a/Power BI Dashboarding Portfolio/Coca Cola Regional Sales Dashboard & Analysis/Data_ASEAN.xlsx
+++ b/Power BI Dashboarding Portfolio/Coca Cola Regional Sales Dashboard & Analysis/Data_ASEAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Marcus Li_Coca Cola PowerBI Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\GitHub\Data-Science-Portfolio\Power BI Dashboarding Portfolio\Coca Cola Regional Sales Dashboard &amp; Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B8CECD-B0DF-4179-80B5-1006F7CF40ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1639BC9D-EFEF-4DDE-B9C5-8BE079B3465C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{55A49559-C261-49D8-AEB8-50B857E7BC60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{55A49559-C261-49D8-AEB8-50B857E7BC60}"/>
   </bookViews>
   <sheets>
     <sheet name="External Sales" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="91">
   <si>
     <t>States</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>State49</t>
+  </si>
+  <si>
+    <t>City49</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3938,7 +3941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3A06D6-3EC5-47F1-9202-8646D69C0990}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
@@ -12045,10 +12048,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E374D20-E383-4E58-B8D4-6D20A60036EE}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12449,6 +12452,14 @@
         <v>88</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
